--- a/TEST DATA/Sir Elton/Sample_2/Output/soh_whse.xlsx
+++ b/TEST DATA/Sir Elton/Sample_2/Output/soh_whse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mp/Desktop/jarick/day_2/Result/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\MBPI-Projects\RM-Consumption-Management-System\TEST DATA\Sir Elton\Sample_2\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55901499-064B-1843-B0A2-5C6AB0981ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A240C3-D82B-47C7-AE3B-583A8251BFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="2320" windowWidth="20400" windowHeight="20720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -1297,11 +1297,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1309,17 +1316,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1330,7 +1337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1341,7 +1348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1361,13 +1368,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="E178" sqref="E178"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1387,7 +1402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1395,7 +1410,7 @@
         <v>12.18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1403,7 +1418,7 @@
         <v>30.900000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1411,7 +1426,7 @@
         <v>85.64</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1419,7 +1434,7 @@
         <v>28.76</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1427,7 +1442,7 @@
         <v>110.19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1435,7 +1450,7 @@
         <v>95.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1443,7 +1458,7 @@
         <v>135.66999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1451,7 +1466,7 @@
         <v>86.57</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1459,7 +1474,7 @@
         <v>77.09</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1467,7 +1482,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1475,7 +1490,7 @@
         <v>112.93</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1483,7 +1498,7 @@
         <v>34.049999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1491,7 +1506,7 @@
         <v>12.89</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1499,7 +1514,7 @@
         <v>132.33000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1507,1307 +1522,1310 @@
         <v>116.43</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>114.87</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>18.62</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>37</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>3.41</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>113.43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>61.77</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>42</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>68.739999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>43</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>38.79</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>44</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>11.89</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>45</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>38.53</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>15.4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>47</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>2.97</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>48</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>0.98</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>49</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>50</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <v>19.809999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>51</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <v>11.13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>52</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <v>5.34</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>53</v>
       </c>
-      <c r="E36">
+      <c r="E37">
         <v>8.25</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>54</v>
       </c>
-      <c r="E37">
+      <c r="E38">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>55</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>56</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <v>1.85</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>57</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <v>23.06</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>58</v>
       </c>
-      <c r="E41">
+      <c r="E42">
         <v>24.82</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>59</v>
       </c>
-      <c r="E42">
+      <c r="E43">
         <v>1.72</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>60</v>
       </c>
-      <c r="E43">
+      <c r="E44">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>61</v>
       </c>
-      <c r="E44">
+      <c r="E45">
         <v>0.06</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>62</v>
       </c>
-      <c r="E45">
+      <c r="E46">
         <v>19.05</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>63</v>
       </c>
-      <c r="E46">
+      <c r="E47">
         <v>16.45</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>64</v>
       </c>
-      <c r="E47">
+      <c r="E48">
         <v>20.350000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>65</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <v>1.27</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>66</v>
       </c>
-      <c r="E49">
+      <c r="E50">
         <v>60.82</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>67</v>
       </c>
-      <c r="E50">
+      <c r="E51">
         <v>61.76</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>192</v>
+      </c>
+      <c r="E52">
+        <v>20.2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>68</v>
       </c>
-      <c r="E51">
+      <c r="E53">
         <v>72.09</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>69</v>
       </c>
-      <c r="E52">
+      <c r="E54">
         <v>996.15</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>70</v>
       </c>
-      <c r="E53">
+      <c r="E55">
         <v>20.9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>71</v>
       </c>
-      <c r="E54">
+      <c r="E56">
         <v>19.62</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>72</v>
       </c>
-      <c r="E55">
+      <c r="E57">
         <v>2628.95</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>73</v>
       </c>
-      <c r="E56">
+      <c r="E58">
         <v>2505.65</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>74</v>
       </c>
-      <c r="E57">
+      <c r="E59">
         <v>32.14</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>75</v>
       </c>
-      <c r="E58">
+      <c r="E60">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>76</v>
       </c>
-      <c r="E59">
+      <c r="E61">
         <v>1715.55</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>77</v>
       </c>
-      <c r="E60">
+      <c r="E62">
         <v>15.74</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>78</v>
       </c>
-      <c r="E61">
+      <c r="E63">
         <v>1870.42</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>79</v>
       </c>
-      <c r="E62">
+      <c r="E64">
         <v>19.71</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>80</v>
       </c>
-      <c r="E63">
+      <c r="E65">
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>81</v>
       </c>
-      <c r="E64">
+      <c r="E66">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>82</v>
       </c>
-      <c r="E65">
+      <c r="E67">
         <v>1541.21</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>83</v>
       </c>
-      <c r="E66">
+      <c r="E68">
         <v>1566.22</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>84</v>
       </c>
-      <c r="E67">
+      <c r="E69">
         <v>117.1699999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>85</v>
       </c>
-      <c r="E68">
+      <c r="E70">
         <v>11.349999999999911</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>86</v>
       </c>
-      <c r="E69">
+      <c r="E71">
         <v>144.16999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>87</v>
       </c>
-      <c r="E70">
+      <c r="E72">
         <v>45.03</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>88</v>
       </c>
-      <c r="E71">
+      <c r="E73">
         <v>1.98</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>89</v>
       </c>
-      <c r="E72">
+      <c r="E74">
         <v>9.76</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>90</v>
       </c>
-      <c r="E73">
+      <c r="E75">
         <v>14.84</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>91</v>
       </c>
-      <c r="E74">
+      <c r="E76">
         <v>95.24</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>92</v>
       </c>
-      <c r="E75">
+      <c r="E77">
         <v>13.26</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>93</v>
       </c>
-      <c r="E76">
+      <c r="E78">
         <v>1152.6199999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>94</v>
       </c>
-      <c r="E77">
+      <c r="E79">
         <v>19.489999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>95</v>
       </c>
-      <c r="E78">
+      <c r="E80">
         <v>2029.85</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>96</v>
       </c>
-      <c r="E79">
+      <c r="E81">
         <v>175</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>97</v>
       </c>
-      <c r="E80">
+      <c r="E82">
         <v>2559.9899999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>98</v>
       </c>
-      <c r="E81">
+      <c r="E83">
         <v>6.78</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>99</v>
       </c>
-      <c r="E82">
+      <c r="E84">
         <v>1143.8399999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>100</v>
       </c>
-      <c r="E83">
+      <c r="E85">
         <v>1.21</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>101</v>
       </c>
-      <c r="E84">
+      <c r="E86">
         <v>10.8900000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>102</v>
       </c>
-      <c r="E85">
+      <c r="E87">
         <v>23.68</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>103</v>
       </c>
-      <c r="E86">
+      <c r="E88">
         <v>7.47</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>104</v>
       </c>
-      <c r="E87">
+      <c r="E89">
         <v>4.55</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>105</v>
       </c>
-      <c r="E88">
+      <c r="E90">
         <v>1.71</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>106</v>
       </c>
-      <c r="E89">
+      <c r="E91">
         <v>9.9</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>107</v>
       </c>
-      <c r="E90">
+      <c r="E92">
         <v>147.68</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>108</v>
       </c>
-      <c r="E91">
+      <c r="E93">
         <v>90.43</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>109</v>
       </c>
-      <c r="E92">
+      <c r="E94">
         <v>64.510000000000005</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>110</v>
       </c>
-      <c r="E93">
+      <c r="E95">
         <v>15.92</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>111</v>
       </c>
-      <c r="E94">
+      <c r="E96">
         <v>72.399999999999991</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>112</v>
       </c>
-      <c r="E95">
+      <c r="E97">
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>113</v>
       </c>
-      <c r="E96">
+      <c r="E98">
         <v>105.36</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>114</v>
       </c>
-      <c r="E97">
+      <c r="E99">
         <v>161.59</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>115</v>
       </c>
-      <c r="E98">
+      <c r="E100">
         <v>169.23</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>116</v>
       </c>
-      <c r="E99">
+      <c r="E101">
         <v>15.31</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>117</v>
       </c>
-      <c r="E100">
+      <c r="E102">
         <v>9.82</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>118</v>
       </c>
-      <c r="E101">
+      <c r="E103">
         <v>9.1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>118</v>
+      </c>
+      <c r="E104">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F104" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>119</v>
       </c>
-      <c r="E102">
+      <c r="E105">
         <v>32.770000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>120</v>
       </c>
-      <c r="E103">
+      <c r="E106">
         <v>21.39</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>121</v>
       </c>
-      <c r="E104">
+      <c r="E107">
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>122</v>
       </c>
-      <c r="E105">
+      <c r="E108">
         <v>23.73</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>123</v>
       </c>
-      <c r="E106">
+      <c r="E109">
         <v>182.02</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>124</v>
       </c>
-      <c r="E107">
+      <c r="E110">
         <v>184.29</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>125</v>
       </c>
-      <c r="E108">
+      <c r="E111">
         <v>341.87</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>126</v>
       </c>
-      <c r="E109">
+      <c r="E112">
         <v>3215.08</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>127</v>
       </c>
-      <c r="E110">
+      <c r="E113">
         <v>1000</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>128</v>
       </c>
-      <c r="E111">
+      <c r="E114">
         <v>835.13</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>129</v>
       </c>
-      <c r="E112">
+      <c r="E115">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>130</v>
       </c>
-      <c r="E113">
+      <c r="E116">
         <v>31.75</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>131</v>
       </c>
-      <c r="E114">
+      <c r="E117">
         <v>361.32</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>132</v>
       </c>
-      <c r="E115">
+      <c r="E118">
         <v>63.05</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>133</v>
       </c>
-      <c r="E116">
+      <c r="E119">
         <v>21.97</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>134</v>
       </c>
-      <c r="E117">
+      <c r="E120">
         <v>22.86</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>135</v>
       </c>
-      <c r="E118">
+      <c r="E121">
         <v>0.16</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>136</v>
       </c>
-      <c r="E119">
+      <c r="E122">
         <v>8.66</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>137</v>
       </c>
-      <c r="E120">
+      <c r="E123">
         <v>33.18</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>138</v>
       </c>
-      <c r="E121">
+      <c r="E124">
         <v>44.22</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>139</v>
       </c>
-      <c r="E122">
+      <c r="E125">
         <v>15.2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>140</v>
       </c>
-      <c r="E123">
+      <c r="E126">
         <v>97.71</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>141</v>
       </c>
-      <c r="E124">
+      <c r="E127">
         <v>54.51</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>142</v>
       </c>
-      <c r="E125">
+      <c r="E128">
         <v>12.29</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>143</v>
       </c>
-      <c r="E126">
+      <c r="E129">
         <v>51.07</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>144</v>
       </c>
-      <c r="E127">
+      <c r="E130">
         <v>214.14</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>145</v>
       </c>
-      <c r="E128">
+      <c r="E131">
         <v>22.26</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>146</v>
       </c>
-      <c r="E129">
+      <c r="E132">
         <v>4.08</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>147</v>
       </c>
-      <c r="E130">
+      <c r="E133">
         <v>17.52</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>148</v>
       </c>
-      <c r="E131">
+      <c r="E134">
         <v>32.44</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>149</v>
       </c>
-      <c r="E132">
+      <c r="E135">
         <v>3.68</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>150</v>
       </c>
-      <c r="E133">
+      <c r="E136">
         <v>52.99</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>151</v>
       </c>
-      <c r="E134">
+      <c r="E137">
         <v>106.07</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>152</v>
       </c>
-      <c r="E135">
+      <c r="E138">
         <v>5.82</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>153</v>
       </c>
-      <c r="E136">
+      <c r="E139">
         <v>272.35000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>154</v>
       </c>
-      <c r="E137">
+      <c r="E140">
         <v>19.98</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>155</v>
       </c>
-      <c r="E138">
+      <c r="E141">
         <v>16.03</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>156</v>
       </c>
-      <c r="E139">
+      <c r="E142">
         <v>2.09</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>157</v>
       </c>
-      <c r="E140">
+      <c r="E143">
         <v>8.7100000000000009</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>158</v>
       </c>
-      <c r="E141">
+      <c r="E144">
         <v>9.76</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>159</v>
       </c>
-      <c r="E142">
+      <c r="E145">
         <v>4.18</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>160</v>
       </c>
-      <c r="E143">
+      <c r="E146">
         <v>61.74</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>161</v>
       </c>
-      <c r="E144">
+      <c r="E147">
         <v>2083.39</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>162</v>
       </c>
-      <c r="E145">
+      <c r="E148">
         <v>10.79</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>163</v>
       </c>
-      <c r="E146">
+      <c r="E149">
         <v>1104.0999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>164</v>
       </c>
-      <c r="E147">
+      <c r="E150">
         <v>2112.39</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>165</v>
       </c>
-      <c r="E148">
+      <c r="E151">
         <v>90.55</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>166</v>
       </c>
-      <c r="E149">
+      <c r="E152">
         <v>50.33</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>167</v>
       </c>
-      <c r="E150">
+      <c r="E153">
         <v>124.89</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>168</v>
       </c>
-      <c r="E151">
+      <c r="E154">
         <v>10.98</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>169</v>
       </c>
-      <c r="E152">
+      <c r="E155">
         <v>9.57</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>170</v>
       </c>
-      <c r="E153">
+      <c r="E156">
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>171</v>
       </c>
-      <c r="E154">
+      <c r="E157">
         <v>52.35</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>172</v>
       </c>
-      <c r="E155">
+      <c r="E158">
         <v>31.01</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>173</v>
       </c>
-      <c r="E156">
+      <c r="E159">
         <v>10.46</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>174</v>
       </c>
-      <c r="E157">
+      <c r="E160">
         <v>102.77</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>175</v>
       </c>
-      <c r="E158">
+      <c r="E161">
         <v>33.47</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>176</v>
       </c>
-      <c r="E159">
+      <c r="E162">
         <v>204.8</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>177</v>
       </c>
-      <c r="E160">
+      <c r="E163">
         <v>24.7</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>178</v>
       </c>
-      <c r="E161">
+      <c r="E164">
         <v>20.190000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>179</v>
       </c>
-      <c r="E162">
+      <c r="E165">
         <v>4.29</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>180</v>
       </c>
-      <c r="E163">
+      <c r="E166">
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>181</v>
       </c>
-      <c r="E164">
+      <c r="E167">
         <v>91.94</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>182</v>
       </c>
-      <c r="E165">
+      <c r="E168">
         <v>0.84</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>183</v>
       </c>
-      <c r="E166">
+      <c r="E169">
         <v>18.579999999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>193</v>
+      </c>
+      <c r="E170">
+        <v>9.49</v>
+      </c>
+      <c r="F170" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>184</v>
       </c>
-      <c r="E167">
+      <c r="E171">
         <v>18.78</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>185</v>
       </c>
-      <c r="E168">
+      <c r="E172">
         <v>7.24</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>186</v>
       </c>
-      <c r="E169">
+      <c r="E173">
         <v>504.69</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>187</v>
       </c>
-      <c r="E170">
+      <c r="E174">
         <v>61.6</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>188</v>
       </c>
-      <c r="E171">
+      <c r="E175">
         <v>33.5</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>189</v>
       </c>
-      <c r="E172">
+      <c r="E176">
         <v>82.01</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>190</v>
       </c>
-      <c r="E173">
+      <c r="E177">
         <v>7.2</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>33</v>
-      </c>
-      <c r="E174">
-        <v>25</v>
-      </c>
-      <c r="F174" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>192</v>
-      </c>
-      <c r="E175">
-        <v>20.2</v>
-      </c>
-      <c r="F175" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>118</v>
-      </c>
-      <c r="E176">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="F176" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>193</v>
-      </c>
-      <c r="E177">
-        <v>9.49</v>
-      </c>
-      <c r="F177" t="s">
-        <v>194</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F177">
+    <sortCondition ref="A2:A177"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2816,13 +2834,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2842,7 +2868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -2850,7 +2876,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2858,7 +2884,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -2866,7 +2892,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2874,7 +2900,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -2882,7 +2908,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2890,7 +2916,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -2898,314 +2924,317 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>41</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>43</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>45</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>53</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>1275</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>57</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>1575</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>66</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>67</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>640</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>196</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>197</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>125.26</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>70</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>1025</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>71</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>73</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>21250</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>198</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>2584</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>199</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>450</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>79</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>85</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>2400</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>200</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>6000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>100</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>325</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>107</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>2150</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>113</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>114</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>115</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>725</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>117</v>
-      </c>
-      <c r="E31">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>118</v>
       </c>
       <c r="E32">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>125</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <v>5450</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>127</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <v>3250</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>132</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>140</v>
       </c>
-      <c r="E36">
+      <c r="E37">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>144</v>
       </c>
-      <c r="E37">
+      <c r="E38">
         <v>800</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>152</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>153</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>155</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <v>3025</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>164</v>
       </c>
-      <c r="E41">
+      <c r="E42">
         <v>20000</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>165</v>
       </c>
-      <c r="E42">
+      <c r="E43">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>174</v>
       </c>
-      <c r="E43">
+      <c r="E44">
         <v>2850</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>176</v>
       </c>
-      <c r="E44">
+      <c r="E45">
         <v>1100</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>181</v>
       </c>
-      <c r="E45">
+      <c r="E46">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46">
-        <v>50</v>
-      </c>
-      <c r="F46" t="s">
-        <v>191</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F46">
+    <sortCondition ref="A2:A46"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3214,13 +3243,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="E171" sqref="E171"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -3240,7 +3277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>202</v>
       </c>
@@ -3248,7 +3285,7 @@
         <v>153.46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -3256,7 +3293,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -3264,7 +3301,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -3272,7 +3309,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -3280,7 +3317,7 @@
         <v>15330</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -3288,7 +3325,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -3296,7 +3333,7 @@
         <v>27675</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -3304,7 +3341,7 @@
         <v>20925</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -3312,7 +3349,7 @@
         <v>19975</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -3320,7 +3357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>203</v>
       </c>
@@ -3328,7 +3365,7 @@
         <v>91.79</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -3336,7 +3373,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -3344,7 +3381,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -3352,7 +3389,7 @@
         <v>23.14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>204</v>
       </c>
@@ -3360,7 +3397,7 @@
         <v>127.7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>205</v>
       </c>
@@ -3368,7 +3405,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>206</v>
       </c>
@@ -3376,7 +3413,7 @@
         <v>229.66</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>207</v>
       </c>
@@ -3384,7 +3421,7 @@
         <v>330.87</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>208</v>
       </c>
@@ -3392,1217 +3429,1217 @@
         <v>1150.76</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>68</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>24.68</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>69</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>209</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>8.52</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>72</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>15400</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>74</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>14325</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>210</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>6000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>211</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>4600</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>212</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>213</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>11.46</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>214</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>543.94000000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>75</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33">
+        <v>1.03</v>
+      </c>
+      <c r="F33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>76</v>
       </c>
-      <c r="E32">
+      <c r="E34">
         <v>6000</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>77</v>
       </c>
-      <c r="E33">
+      <c r="E35">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>78</v>
       </c>
-      <c r="E34">
+      <c r="E36">
         <v>4200</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>80</v>
       </c>
-      <c r="E35">
+      <c r="E37">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>81</v>
       </c>
-      <c r="E36">
+      <c r="E38">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>82</v>
       </c>
-      <c r="E37">
+      <c r="E39">
         <v>13200</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>83</v>
       </c>
-      <c r="E38">
+      <c r="E40">
         <v>13200</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>84</v>
       </c>
-      <c r="E39">
+      <c r="E41">
         <v>10860</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>85</v>
       </c>
-      <c r="E40">
+      <c r="E42">
         <v>29050</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="E41">
+      <c r="E43">
         <v>18625</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F44" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>215</v>
       </c>
-      <c r="E42">
+      <c r="E45">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>216</v>
       </c>
-      <c r="E43">
+      <c r="E46">
         <v>4963.0200000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>88</v>
       </c>
-      <c r="E44">
+      <c r="E47">
         <v>309.02</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>89</v>
       </c>
-      <c r="E45">
+      <c r="E48">
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>90</v>
       </c>
-      <c r="E46">
+      <c r="E49">
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>91</v>
       </c>
-      <c r="E47">
+      <c r="E50">
         <v>12050</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>92</v>
       </c>
-      <c r="E48">
+      <c r="E51">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52">
+        <v>69.95</v>
+      </c>
+      <c r="F52" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>217</v>
       </c>
-      <c r="E49">
+      <c r="E53">
         <v>569.9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>218</v>
       </c>
-      <c r="E50">
+      <c r="E54">
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>219</v>
       </c>
-      <c r="E51">
+      <c r="E55">
         <v>274.88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>94</v>
       </c>
-      <c r="E52">
+      <c r="E56">
         <v>1450</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>95</v>
       </c>
-      <c r="E53">
+      <c r="E57">
         <v>6300</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>98</v>
       </c>
-      <c r="E54">
+      <c r="E58">
         <v>4160</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>99</v>
       </c>
-      <c r="E55">
+      <c r="E59">
         <v>7475</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>101</v>
       </c>
-      <c r="E56">
+      <c r="E60">
         <v>5800</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>220</v>
       </c>
-      <c r="E57">
+      <c r="E61">
         <v>1524.88</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>221</v>
       </c>
-      <c r="E58">
+      <c r="E62">
         <v>270.86</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>296</v>
+      </c>
+      <c r="E63">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="F63" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>104</v>
       </c>
-      <c r="E59">
+      <c r="E64">
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>106</v>
       </c>
-      <c r="E60">
+      <c r="E65">
         <v>390</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>111</v>
       </c>
-      <c r="E61">
+      <c r="E66">
         <v>900</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>297</v>
+      </c>
+      <c r="E67">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F67" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>222</v>
       </c>
-      <c r="E62">
+      <c r="E68">
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>116</v>
       </c>
-      <c r="E63">
+      <c r="E69">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>223</v>
       </c>
-      <c r="E64">
+      <c r="E70">
         <v>44.05</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>224</v>
       </c>
-      <c r="E65">
+      <c r="E71">
         <v>24.54</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>225</v>
       </c>
-      <c r="E66">
+      <c r="E72">
         <v>938.16</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>120</v>
       </c>
-      <c r="E67">
+      <c r="E73">
         <v>325</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>226</v>
       </c>
-      <c r="E68">
+      <c r="E74">
         <v>22.88</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>227</v>
       </c>
-      <c r="E69">
+      <c r="E75">
         <v>21.82</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>228</v>
       </c>
-      <c r="E70">
+      <c r="E76">
         <v>7.12</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>229</v>
       </c>
-      <c r="E71">
+      <c r="E77">
         <v>21.98</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>125</v>
       </c>
-      <c r="E72">
+      <c r="E78">
         <v>10000</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>230</v>
       </c>
-      <c r="E73">
+      <c r="E79">
         <v>48.46</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>132</v>
       </c>
-      <c r="E74">
+      <c r="E80">
         <v>275</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>231</v>
       </c>
-      <c r="E75">
+      <c r="E81">
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>232</v>
       </c>
-      <c r="E76">
+      <c r="E82">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>233</v>
       </c>
-      <c r="E77">
+      <c r="E83">
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>134</v>
       </c>
-      <c r="E78">
+      <c r="E84">
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>138</v>
       </c>
-      <c r="E79">
+      <c r="E85">
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>234</v>
       </c>
-      <c r="E80">
+      <c r="E86">
         <v>19.66</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>141</v>
       </c>
-      <c r="E81">
+      <c r="E87">
         <v>760</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>143</v>
       </c>
-      <c r="E82">
+      <c r="E88">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>235</v>
       </c>
-      <c r="E83">
+      <c r="E89">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>144</v>
       </c>
-      <c r="E84">
+      <c r="E90">
         <v>1300</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>236</v>
       </c>
-      <c r="E85">
+      <c r="E91">
         <v>1.59</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>237</v>
       </c>
-      <c r="E86">
+      <c r="E92">
         <v>1.32</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>238</v>
       </c>
-      <c r="E87">
+      <c r="E93">
         <v>1.25</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>239</v>
       </c>
-      <c r="E88">
+      <c r="E94">
         <v>0.77</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>240</v>
       </c>
-      <c r="E89">
+      <c r="E95">
         <v>9.56</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>241</v>
       </c>
-      <c r="E90">
+      <c r="E96">
         <v>9.27</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>242</v>
       </c>
-      <c r="E91">
+      <c r="E97">
         <v>1.25</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>243</v>
       </c>
-      <c r="E92">
+      <c r="E98">
         <v>27.23</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>146</v>
       </c>
-      <c r="E93">
+      <c r="E99">
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>147</v>
       </c>
-      <c r="E94">
+      <c r="E100">
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>148</v>
       </c>
-      <c r="E95">
+      <c r="E101">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>244</v>
       </c>
-      <c r="E96">
+      <c r="E102">
         <v>94.95</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>245</v>
       </c>
-      <c r="E97">
+      <c r="E103">
         <v>1050</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>246</v>
       </c>
-      <c r="E98">
+      <c r="E104">
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>247</v>
       </c>
-      <c r="E99">
+      <c r="E105">
         <v>18.14</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>248</v>
       </c>
-      <c r="E100">
+      <c r="E106">
         <v>3.32</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>249</v>
       </c>
-      <c r="E101">
+      <c r="E107">
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>250</v>
       </c>
-      <c r="E102">
+      <c r="E108">
         <v>6.84</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>251</v>
       </c>
-      <c r="E103">
+      <c r="E109">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>252</v>
       </c>
-      <c r="E104">
+      <c r="E110">
         <v>3.84</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>253</v>
       </c>
-      <c r="E105">
+      <c r="E111">
         <v>8.16</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>254</v>
       </c>
-      <c r="E106">
+      <c r="E112">
         <v>7.06</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>255</v>
       </c>
-      <c r="E107">
+      <c r="E113">
         <v>3.28</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>256</v>
       </c>
-      <c r="E108">
+      <c r="E114">
         <v>5.84</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>257</v>
       </c>
-      <c r="E109">
+      <c r="E115">
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>258</v>
       </c>
-      <c r="E110">
+      <c r="E116">
         <v>3.28</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>259</v>
       </c>
-      <c r="E111">
+      <c r="E117">
         <v>0.4</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>260</v>
       </c>
-      <c r="E112">
+      <c r="E118">
         <v>6.24</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>261</v>
       </c>
-      <c r="E113">
+      <c r="E119">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>262</v>
       </c>
-      <c r="E114">
+      <c r="E120">
         <v>9.7100000000000009</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>263</v>
       </c>
-      <c r="E115">
+      <c r="E121">
         <v>5.6199999999999992</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>264</v>
       </c>
-      <c r="E116">
+      <c r="E122">
         <v>2.58</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>265</v>
       </c>
-      <c r="E117">
+      <c r="E123">
         <v>3.9</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>266</v>
       </c>
-      <c r="E118">
+      <c r="E124">
         <v>24.96</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>267</v>
       </c>
-      <c r="E119">
+      <c r="E125">
         <v>25.5</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>268</v>
       </c>
-      <c r="E120">
+      <c r="E126">
         <v>9.14</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>269</v>
       </c>
-      <c r="E121">
+      <c r="E127">
         <v>4.22</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>270</v>
       </c>
-      <c r="E122">
+      <c r="E128">
         <v>14.78</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>271</v>
       </c>
-      <c r="E123">
+      <c r="E129">
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>272</v>
       </c>
-      <c r="E124">
+      <c r="E130">
         <v>17.48</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>273</v>
       </c>
-      <c r="E125">
+      <c r="E131">
         <v>1.74</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>274</v>
       </c>
-      <c r="E126">
+      <c r="E132">
         <v>7.7</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>275</v>
       </c>
-      <c r="E127">
+      <c r="E133">
         <v>3.66</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>276</v>
       </c>
-      <c r="E128">
+      <c r="E134">
         <v>5.09</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>277</v>
       </c>
-      <c r="E129">
+      <c r="E135">
         <v>51.260000000000012</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>278</v>
       </c>
-      <c r="E130">
+      <c r="E136">
         <v>11.66</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>279</v>
       </c>
-      <c r="E131">
+      <c r="E137">
         <v>1.4</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>280</v>
       </c>
-      <c r="E132">
+      <c r="E138">
         <v>7.32</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>281</v>
       </c>
-      <c r="E133">
+      <c r="E139">
         <v>6.04</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>282</v>
       </c>
-      <c r="E134">
+      <c r="E140">
         <v>0.54</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>283</v>
       </c>
-      <c r="E135">
+      <c r="E141">
         <v>8.68</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>284</v>
       </c>
-      <c r="E136">
+      <c r="E142">
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>285</v>
       </c>
-      <c r="E137">
+      <c r="E143">
         <v>2.94</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>286</v>
       </c>
-      <c r="E138">
+      <c r="E144">
         <v>2.98</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>287</v>
       </c>
-      <c r="E139">
+      <c r="E145">
         <v>3.82</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>288</v>
       </c>
-      <c r="E140">
+      <c r="E146">
         <v>8.42</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>289</v>
       </c>
-      <c r="E141">
+      <c r="E147">
         <v>3.68</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>290</v>
       </c>
-      <c r="E142">
+      <c r="E148">
         <v>3.66</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>154</v>
       </c>
-      <c r="E143">
+      <c r="E149">
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>291</v>
       </c>
-      <c r="E144">
+      <c r="E150">
         <v>50</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>159</v>
       </c>
-      <c r="E145">
+      <c r="E151">
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>161</v>
       </c>
-      <c r="E146">
+      <c r="E152">
         <v>19000</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>162</v>
       </c>
-      <c r="E147">
+      <c r="E153">
         <v>16500</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>163</v>
       </c>
-      <c r="E148">
+      <c r="E154">
         <v>1000</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>167</v>
       </c>
-      <c r="E149">
+      <c r="E155">
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>170</v>
       </c>
-      <c r="E150">
+      <c r="E156">
         <v>40</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>171</v>
       </c>
-      <c r="E151">
+      <c r="E157">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>172</v>
       </c>
-      <c r="E152">
+      <c r="E158">
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>175</v>
       </c>
-      <c r="E153">
+      <c r="E159">
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>177</v>
       </c>
-      <c r="E154">
+      <c r="E160">
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>179</v>
       </c>
-      <c r="E155">
+      <c r="E161">
         <v>40</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>292</v>
       </c>
-      <c r="E156">
+      <c r="E162">
         <v>6.48</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>293</v>
       </c>
-      <c r="E157">
+      <c r="E163">
         <v>19.47</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>182</v>
       </c>
-      <c r="E158">
+      <c r="E164">
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>185</v>
       </c>
-      <c r="E159">
+      <c r="E165">
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>186</v>
       </c>
-      <c r="E160">
+      <c r="E166">
         <v>850</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>187</v>
       </c>
-      <c r="E161">
+      <c r="E167">
         <v>120</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>294</v>
       </c>
-      <c r="E162">
+      <c r="E168">
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>189</v>
       </c>
-      <c r="E163">
+      <c r="E169">
         <v>125</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>192</v>
-      </c>
-      <c r="E164">
-        <v>100</v>
-      </c>
-      <c r="F164" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>75</v>
-      </c>
-      <c r="E165">
-        <v>1.03</v>
-      </c>
-      <c r="F165" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>86</v>
-      </c>
-      <c r="E166">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="F166" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>93</v>
-      </c>
-      <c r="E167">
-        <v>69.95</v>
-      </c>
-      <c r="F167" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>296</v>
-      </c>
-      <c r="E168">
-        <v>33.340000000000003</v>
-      </c>
-      <c r="F168" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>297</v>
-      </c>
-      <c r="E169">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F169" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>298</v>
       </c>
@@ -4614,6 +4651,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F170">
+    <sortCondition ref="A2:A170"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>